--- a/data/Contact_Recreation/KahuterawaatendKahuterawaRd_b5494d0926.xlsx
+++ b/data/Contact_Recreation/KahuterawaatendKahuterawaRd_b5494d0926.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -648,7 +648,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -687,7 +687,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -726,7 +726,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -765,7 +765,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -921,7 +921,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -960,7 +960,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -999,7 +999,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4119,7 +4119,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -5055,7 +5055,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5289,7 +5289,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5718,7 +5718,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5874,7 +5874,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -6147,7 +6147,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6225,7 +6225,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6498,7 +6498,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6537,7 +6537,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6615,7 +6615,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">

--- a/data/Contact_Recreation/KahuterawaatendKahuterawaRd_b5494d0926.xlsx
+++ b/data/Contact_Recreation/KahuterawaatendKahuterawaRd_b5494d0926.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="117">
   <si>
     <t>site name</t>
   </si>
@@ -49,274 +49,304 @@
     <t>E. coli</t>
   </si>
   <si>
-    <t>440</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>670</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>6900</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>4500</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>2720</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>3260</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>833</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3280</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>535</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>554</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>754</t>
-  </si>
-  <si>
-    <t>2660</t>
-  </si>
-  <si>
-    <t>2232</t>
-  </si>
-  <si>
-    <t>1334</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>855</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>1211</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>1470</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>767</t>
-  </si>
-  <si>
-    <t>526</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>8160</t>
-  </si>
-  <si>
-    <t>407</t>
-  </si>
-  <si>
-    <t>1076</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>189</t>
+    <t>440.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>220.0</t>
+  </si>
+  <si>
+    <t>1100.0</t>
+  </si>
+  <si>
+    <t>670.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>1200.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>230.0</t>
+  </si>
+  <si>
+    <t>6900.0</t>
+  </si>
+  <si>
+    <t>380.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>250.0</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>390.0</t>
+  </si>
+  <si>
+    <t>4500.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>89.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>187.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>2720.0</t>
+  </si>
+  <si>
+    <t>279.0</t>
+  </si>
+  <si>
+    <t>323.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>226.0</t>
+  </si>
+  <si>
+    <t>259.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>152.0</t>
+  </si>
+  <si>
+    <t>97.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>132.0</t>
+  </si>
+  <si>
+    <t>3260.0</t>
+  </si>
+  <si>
+    <t>238.0</t>
+  </si>
+  <si>
+    <t>213.0</t>
+  </si>
+  <si>
+    <t>121.0</t>
+  </si>
+  <si>
+    <t>199.0</t>
+  </si>
+  <si>
+    <t>246.0</t>
+  </si>
+  <si>
+    <t>216.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>504.0</t>
+  </si>
+  <si>
+    <t>158.0</t>
+  </si>
+  <si>
+    <t>275.0</t>
+  </si>
+  <si>
+    <t>833.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>3280.0</t>
+  </si>
+  <si>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>1607.0</t>
+  </si>
+  <si>
+    <t>355.0</t>
+  </si>
+  <si>
+    <t>134.0</t>
+  </si>
+  <si>
+    <t>535.0</t>
+  </si>
+  <si>
+    <t>243.0</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>554.0</t>
+  </si>
+  <si>
+    <t>161.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>754.0</t>
+  </si>
+  <si>
+    <t>2660.0</t>
+  </si>
+  <si>
+    <t>2232.0</t>
+  </si>
+  <si>
+    <t>1334.0</t>
+  </si>
+  <si>
+    <t>153.0</t>
+  </si>
+  <si>
+    <t>309.0</t>
+  </si>
+  <si>
+    <t>855.0</t>
+  </si>
+  <si>
+    <t>318.0</t>
+  </si>
+  <si>
+    <t>131.0</t>
+  </si>
+  <si>
+    <t>1211.0</t>
+  </si>
+  <si>
+    <t>197.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>480.0</t>
+  </si>
+  <si>
+    <t>169.0</t>
+  </si>
+  <si>
+    <t>1470.0</t>
+  </si>
+  <si>
+    <t>173.0</t>
+  </si>
+  <si>
+    <t>145.0</t>
+  </si>
+  <si>
+    <t>767.0</t>
+  </si>
+  <si>
+    <t>526.0</t>
+  </si>
+  <si>
+    <t>211.0</t>
+  </si>
+  <si>
+    <t>116.0</t>
+  </si>
+  <si>
+    <t>8160.0</t>
+  </si>
+  <si>
+    <t>407.0</t>
+  </si>
+  <si>
+    <t>1076.0</t>
+  </si>
+  <si>
+    <t>295.0</t>
+  </si>
+  <si>
+    <t>189.0</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>3255.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>3654.0</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>108.0</t>
+  </si>
+  <si>
+    <t>218.0</t>
+  </si>
+  <si>
+    <t>256.0</t>
+  </si>
+  <si>
+    <t>373.0</t>
+  </si>
+  <si>
+    <t>223.0</t>
   </si>
   <si>
     <t>Science - Contact Recreation</t>
@@ -329,6 +359,9 @@
   </si>
   <si>
     <t>APHA 23rd Ed. 9223 B</t>
+  </si>
+  <si>
+    <t>SMEWW 9223B</t>
   </si>
   <si>
     <t>MPN/100mL</t>
@@ -693,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I195"/>
+  <dimension ref="A1:I218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -742,13 +775,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H2">
         <v>600</v>
@@ -768,13 +801,13 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H3">
         <v>600</v>
@@ -794,13 +827,13 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H4">
         <v>600</v>
@@ -820,13 +853,13 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H5">
         <v>600</v>
@@ -846,13 +879,13 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H6">
         <v>600</v>
@@ -872,13 +905,13 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H7">
         <v>600</v>
@@ -898,13 +931,13 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H8">
         <v>600</v>
@@ -924,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H9">
         <v>600</v>
@@ -950,13 +983,13 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H10">
         <v>600</v>
@@ -976,13 +1009,13 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H11">
         <v>600</v>
@@ -1002,13 +1035,13 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H12">
         <v>600</v>
@@ -1028,13 +1061,13 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H13">
         <v>600</v>
@@ -1054,13 +1087,13 @@
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G14" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H14">
         <v>600</v>
@@ -1080,13 +1113,13 @@
         <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H15">
         <v>600</v>
@@ -1106,13 +1139,13 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H16">
         <v>600</v>
@@ -1132,13 +1165,13 @@
         <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H17">
         <v>600</v>
@@ -1158,13 +1191,13 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H18">
         <v>600</v>
@@ -1184,13 +1217,13 @@
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H19">
         <v>600</v>
@@ -1210,13 +1243,13 @@
         <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H20">
         <v>600</v>
@@ -1236,13 +1269,13 @@
         <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H21">
         <v>600</v>
@@ -1262,13 +1295,13 @@
         <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G22" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H22">
         <v>600</v>
@@ -1288,13 +1321,13 @@
         <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F23" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G23" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H23">
         <v>600</v>
@@ -1314,13 +1347,13 @@
         <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F24" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G24" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H24">
         <v>600</v>
@@ -1340,13 +1373,13 @@
         <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G25" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H25">
         <v>600</v>
@@ -1366,13 +1399,13 @@
         <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F26" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G26" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H26">
         <v>600</v>
@@ -1392,13 +1425,13 @@
         <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F27" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G27" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H27">
         <v>600</v>
@@ -1418,13 +1451,13 @@
         <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F28" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G28" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H28">
         <v>600</v>
@@ -1444,13 +1477,13 @@
         <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F29" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G29" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H29">
         <v>600</v>
@@ -1470,13 +1503,13 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G30" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H30">
         <v>600</v>
@@ -1496,13 +1529,13 @@
         <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F31" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G31" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H31">
         <v>600</v>
@@ -1522,13 +1555,13 @@
         <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F32" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G32" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H32">
         <v>600</v>
@@ -1548,13 +1581,13 @@
         <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F33" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G33" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H33">
         <v>600</v>
@@ -1574,13 +1607,13 @@
         <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F34" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G34" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H34">
         <v>600</v>
@@ -1600,13 +1633,13 @@
         <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F35" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G35" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H35">
         <v>600</v>
@@ -1626,13 +1659,13 @@
         <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F36" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G36" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H36">
         <v>600</v>
@@ -1652,13 +1685,13 @@
         <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F37" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G37" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H37">
         <v>600</v>
@@ -1678,13 +1711,13 @@
         <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F38" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G38" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H38">
         <v>600</v>
@@ -1704,13 +1737,13 @@
         <v>24</v>
       </c>
       <c r="E39" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F39" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G39" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H39">
         <v>600</v>
@@ -1730,13 +1763,13 @@
         <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F40" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G40" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H40">
         <v>600</v>
@@ -1756,13 +1789,13 @@
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F41" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G41" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H41">
         <v>600</v>
@@ -1782,13 +1815,13 @@
         <v>47</v>
       </c>
       <c r="E42" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F42" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G42" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H42">
         <v>600</v>
@@ -1808,13 +1841,13 @@
         <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F43" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G43" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H43">
         <v>600</v>
@@ -1834,13 +1867,13 @@
         <v>38</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F44" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G44" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H44">
         <v>600</v>
@@ -1860,13 +1893,13 @@
         <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F45" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G45" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H45">
         <v>600</v>
@@ -1886,13 +1919,13 @@
         <v>43</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F46" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G46" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H46">
         <v>600</v>
@@ -1912,13 +1945,13 @@
         <v>49</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F47" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G47" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H47">
         <v>600</v>
@@ -1938,13 +1971,13 @@
         <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F48" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G48" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H48">
         <v>600</v>
@@ -1964,13 +1997,13 @@
         <v>42</v>
       </c>
       <c r="E49" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F49" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G49" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H49">
         <v>600</v>
@@ -1990,13 +2023,13 @@
         <v>25</v>
       </c>
       <c r="E50" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F50" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G50" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H50">
         <v>600</v>
@@ -2016,13 +2049,13 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F51" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G51" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H51">
         <v>200</v>
@@ -2042,13 +2075,13 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F52" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G52" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H52">
         <v>600</v>
@@ -2068,13 +2101,13 @@
         <v>37</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F53" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G53" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H53">
         <v>600</v>
@@ -2094,13 +2127,13 @@
         <v>49</v>
       </c>
       <c r="E54" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F54" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G54" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H54">
         <v>200</v>
@@ -2120,13 +2153,13 @@
         <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F55" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G55" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H55">
         <v>600</v>
@@ -2146,13 +2179,13 @@
         <v>53</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F56" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G56" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H56">
         <v>600</v>
@@ -2172,13 +2205,13 @@
         <v>54</v>
       </c>
       <c r="E57" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G57" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H57">
         <v>600</v>
@@ -2198,13 +2231,13 @@
         <v>55</v>
       </c>
       <c r="E58" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G58" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H58">
         <v>600</v>
@@ -2224,13 +2257,13 @@
         <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G59" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H59">
         <v>600</v>
@@ -2250,13 +2283,13 @@
         <v>56</v>
       </c>
       <c r="E60" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F60" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G60" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H60">
         <v>600</v>
@@ -2276,13 +2309,13 @@
         <v>44</v>
       </c>
       <c r="E61" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F61" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G61" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H61">
         <v>600</v>
@@ -2302,13 +2335,13 @@
         <v>42</v>
       </c>
       <c r="E62" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F62" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G62" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H62">
         <v>600</v>
@@ -2328,13 +2361,13 @@
         <v>57</v>
       </c>
       <c r="E63" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F63" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G63" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H63">
         <v>600</v>
@@ -2354,13 +2387,13 @@
         <v>38</v>
       </c>
       <c r="E64" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F64" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G64" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H64">
         <v>600</v>
@@ -2380,13 +2413,13 @@
         <v>58</v>
       </c>
       <c r="E65" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F65" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G65" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H65">
         <v>600</v>
@@ -2406,13 +2439,13 @@
         <v>59</v>
       </c>
       <c r="E66" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F66" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G66" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H66">
         <v>600</v>
@@ -2432,13 +2465,13 @@
         <v>58</v>
       </c>
       <c r="E67" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F67" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G67" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H67">
         <v>600</v>
@@ -2458,13 +2491,13 @@
         <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F68" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G68" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H68">
         <v>200</v>
@@ -2484,13 +2517,13 @@
         <v>60</v>
       </c>
       <c r="E69" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F69" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G69" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H69">
         <v>600</v>
@@ -2510,13 +2543,13 @@
         <v>33</v>
       </c>
       <c r="E70" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F70" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G70" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H70">
         <v>600</v>
@@ -2536,13 +2569,13 @@
         <v>37</v>
       </c>
       <c r="E71" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F71" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G71" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H71">
         <v>600</v>
@@ -2562,13 +2595,13 @@
         <v>57</v>
       </c>
       <c r="E72" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F72" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G72" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H72">
         <v>600</v>
@@ -2588,13 +2621,13 @@
         <v>61</v>
       </c>
       <c r="E73" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F73" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G73" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H73">
         <v>600</v>
@@ -2608,19 +2641,19 @@
         <v>10</v>
       </c>
       <c r="C74" s="2">
-        <v>43773.33958333333</v>
+        <v>43779.33472222222</v>
       </c>
       <c r="D74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E74" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F74" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G74" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H74">
         <v>600</v>
@@ -2634,19 +2667,19 @@
         <v>10</v>
       </c>
       <c r="C75" s="2">
-        <v>43779.33472222222</v>
+        <v>43787.33402777778</v>
       </c>
       <c r="D75" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E75" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F75" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G75" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H75">
         <v>600</v>
@@ -2660,19 +2693,19 @@
         <v>10</v>
       </c>
       <c r="C76" s="2">
-        <v>43787.33402777778</v>
+        <v>43793.33333333334</v>
       </c>
       <c r="D76" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E76" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F76" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G76" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H76">
         <v>600</v>
@@ -2686,19 +2719,19 @@
         <v>10</v>
       </c>
       <c r="C77" s="2">
-        <v>43793.33333333334</v>
+        <v>43801.34166666667</v>
       </c>
       <c r="D77" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E77" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F77" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G77" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H77">
         <v>600</v>
@@ -2712,22 +2745,22 @@
         <v>10</v>
       </c>
       <c r="C78" s="2">
-        <v>43801.34166666667</v>
+        <v>43807.32430555556</v>
       </c>
       <c r="D78" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E78" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F78" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G78" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H78">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2738,22 +2771,22 @@
         <v>10</v>
       </c>
       <c r="C79" s="2">
-        <v>43807.32430555556</v>
+        <v>43815.32847222222</v>
       </c>
       <c r="D79" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E79" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F79" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G79" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H79">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2764,19 +2797,19 @@
         <v>10</v>
       </c>
       <c r="C80" s="2">
-        <v>43815.32847222222</v>
+        <v>43821.33333333334</v>
       </c>
       <c r="D80" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E80" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F80" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G80" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H80">
         <v>600</v>
@@ -2790,19 +2823,19 @@
         <v>10</v>
       </c>
       <c r="C81" s="2">
-        <v>43821.33333333334</v>
+        <v>43829.3125</v>
       </c>
       <c r="D81" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E81" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F81" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G81" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H81">
         <v>600</v>
@@ -2816,19 +2849,19 @@
         <v>10</v>
       </c>
       <c r="C82" s="2">
-        <v>43829.3125</v>
+        <v>43835.33125</v>
       </c>
       <c r="D82" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E82" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F82" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G82" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H82">
         <v>600</v>
@@ -2842,19 +2875,19 @@
         <v>10</v>
       </c>
       <c r="C83" s="2">
-        <v>43835.33125</v>
+        <v>43843.32777777778</v>
       </c>
       <c r="D83" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E83" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F83" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G83" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H83">
         <v>600</v>
@@ -2868,19 +2901,19 @@
         <v>10</v>
       </c>
       <c r="C84" s="2">
-        <v>43843.32777777778</v>
+        <v>43849.33194444444</v>
       </c>
       <c r="D84" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E84" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F84" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G84" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H84">
         <v>600</v>
@@ -2894,19 +2927,19 @@
         <v>10</v>
       </c>
       <c r="C85" s="2">
-        <v>43849.33194444444</v>
+        <v>43857.34652777778</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="E85" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F85" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G85" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H85">
         <v>600</v>
@@ -2920,19 +2953,19 @@
         <v>10</v>
       </c>
       <c r="C86" s="2">
-        <v>43857.34652777778</v>
+        <v>43863.33333333334</v>
       </c>
       <c r="D86" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E86" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F86" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G86" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H86">
         <v>600</v>
@@ -2946,19 +2979,19 @@
         <v>10</v>
       </c>
       <c r="C87" s="2">
-        <v>43863.33333333334</v>
+        <v>43871.33055555556</v>
       </c>
       <c r="D87" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E87" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F87" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G87" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H87">
         <v>600</v>
@@ -2972,19 +3005,19 @@
         <v>10</v>
       </c>
       <c r="C88" s="2">
-        <v>43871.33055555556</v>
+        <v>43877.32013888889</v>
       </c>
       <c r="D88" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E88" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F88" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G88" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H88">
         <v>600</v>
@@ -2998,19 +3031,19 @@
         <v>10</v>
       </c>
       <c r="C89" s="2">
-        <v>43877.32013888889</v>
+        <v>43885.32013888889</v>
       </c>
       <c r="D89" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E89" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F89" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G89" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H89">
         <v>600</v>
@@ -3024,19 +3057,19 @@
         <v>10</v>
       </c>
       <c r="C90" s="2">
-        <v>43885.32013888889</v>
+        <v>43891.31805555556</v>
       </c>
       <c r="D90" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E90" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F90" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G90" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H90">
         <v>600</v>
@@ -3050,19 +3083,19 @@
         <v>10</v>
       </c>
       <c r="C91" s="2">
-        <v>43891.31805555556</v>
+        <v>43899.32222222222</v>
       </c>
       <c r="D91" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="E91" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F91" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G91" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H91">
         <v>600</v>
@@ -3076,19 +3109,19 @@
         <v>10</v>
       </c>
       <c r="C92" s="2">
-        <v>43899.32222222222</v>
+        <v>43905.32083333333</v>
       </c>
       <c r="D92" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E92" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F92" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G92" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H92">
         <v>600</v>
@@ -3102,19 +3135,19 @@
         <v>10</v>
       </c>
       <c r="C93" s="2">
-        <v>43905.32083333333</v>
+        <v>44137.34722222222</v>
       </c>
       <c r="D93" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E93" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F93" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G93" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H93">
         <v>600</v>
@@ -3128,19 +3161,19 @@
         <v>10</v>
       </c>
       <c r="C94" s="2">
-        <v>44137.34722222222</v>
+        <v>44143.33819444444</v>
       </c>
       <c r="D94" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E94" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F94" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G94" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H94">
         <v>600</v>
@@ -3154,19 +3187,19 @@
         <v>10</v>
       </c>
       <c r="C95" s="2">
-        <v>44143.33819444444</v>
+        <v>44151.33888888889</v>
       </c>
       <c r="D95" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="E95" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F95" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G95" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H95">
         <v>600</v>
@@ -3180,19 +3213,19 @@
         <v>10</v>
       </c>
       <c r="C96" s="2">
-        <v>44151.33888888889</v>
+        <v>44157.33958333333</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="E96" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F96" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G96" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H96">
         <v>600</v>
@@ -3206,19 +3239,19 @@
         <v>10</v>
       </c>
       <c r="C97" s="2">
-        <v>44157.33958333333</v>
+        <v>44165.33541666667</v>
       </c>
       <c r="D97" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E97" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F97" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G97" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H97">
         <v>600</v>
@@ -3232,19 +3265,19 @@
         <v>10</v>
       </c>
       <c r="C98" s="2">
-        <v>44165.33541666667</v>
+        <v>44171.33958333333</v>
       </c>
       <c r="D98" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E98" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F98" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G98" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H98">
         <v>600</v>
@@ -3258,19 +3291,19 @@
         <v>10</v>
       </c>
       <c r="C99" s="2">
-        <v>44171.33958333333</v>
+        <v>44179.33125</v>
       </c>
       <c r="D99" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E99" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F99" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G99" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H99">
         <v>600</v>
@@ -3284,19 +3317,19 @@
         <v>10</v>
       </c>
       <c r="C100" s="2">
-        <v>44179.33125</v>
+        <v>44185.33958333333</v>
       </c>
       <c r="D100" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E100" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F100" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G100" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H100">
         <v>600</v>
@@ -3310,19 +3343,19 @@
         <v>10</v>
       </c>
       <c r="C101" s="2">
-        <v>44185.33958333333</v>
+        <v>44193.24861111111</v>
       </c>
       <c r="D101" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E101" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F101" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G101" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H101">
         <v>600</v>
@@ -3336,19 +3369,19 @@
         <v>10</v>
       </c>
       <c r="C102" s="2">
-        <v>44193.24861111111</v>
+        <v>44199.25138888889</v>
       </c>
       <c r="D102" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E102" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F102" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G102" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H102">
         <v>600</v>
@@ -3362,19 +3395,19 @@
         <v>10</v>
       </c>
       <c r="C103" s="2">
-        <v>44199.25138888889</v>
+        <v>44207.33125</v>
       </c>
       <c r="D103" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E103" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F103" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G103" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H103">
         <v>600</v>
@@ -3388,19 +3421,19 @@
         <v>10</v>
       </c>
       <c r="C104" s="2">
-        <v>44207.33125</v>
+        <v>44213.33541666667</v>
       </c>
       <c r="D104" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="E104" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F104" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G104" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H104">
         <v>600</v>
@@ -3414,19 +3447,19 @@
         <v>10</v>
       </c>
       <c r="C105" s="2">
-        <v>44213.33541666667</v>
+        <v>44222.32986111111</v>
       </c>
       <c r="D105" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="E105" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F105" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G105" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H105">
         <v>600</v>
@@ -3440,19 +3473,19 @@
         <v>10</v>
       </c>
       <c r="C106" s="2">
-        <v>44222.32986111111</v>
+        <v>44227.33819444444</v>
       </c>
       <c r="D106" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E106" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F106" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G106" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H106">
         <v>600</v>
@@ -3466,19 +3499,19 @@
         <v>10</v>
       </c>
       <c r="C107" s="2">
-        <v>44227.33819444444</v>
+        <v>44236.34930555556</v>
       </c>
       <c r="D107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E107" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F107" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G107" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H107">
         <v>600</v>
@@ -3492,19 +3525,19 @@
         <v>10</v>
       </c>
       <c r="C108" s="2">
-        <v>44236.34930555556</v>
+        <v>44241.30347222222</v>
       </c>
       <c r="D108" t="s">
         <v>38</v>
       </c>
       <c r="E108" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F108" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G108" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H108">
         <v>600</v>
@@ -3518,19 +3551,19 @@
         <v>10</v>
       </c>
       <c r="C109" s="2">
-        <v>44241.30347222222</v>
+        <v>44249.33819444444</v>
       </c>
       <c r="D109" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E109" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F109" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G109" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H109">
         <v>600</v>
@@ -3544,19 +3577,19 @@
         <v>10</v>
       </c>
       <c r="C110" s="2">
-        <v>44249.33819444444</v>
+        <v>44256.35694444444</v>
       </c>
       <c r="D110" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E110" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F110" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G110" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H110">
         <v>600</v>
@@ -3570,19 +3603,19 @@
         <v>10</v>
       </c>
       <c r="C111" s="2">
-        <v>44256.35694444444</v>
+        <v>44263.33402777778</v>
       </c>
       <c r="D111" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E111" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F111" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G111" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H111">
         <v>600</v>
@@ -3596,19 +3629,19 @@
         <v>10</v>
       </c>
       <c r="C112" s="2">
-        <v>44263.33402777778</v>
+        <v>44269.33472222222</v>
       </c>
       <c r="D112" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E112" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F112" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G112" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H112">
         <v>600</v>
@@ -3622,19 +3655,19 @@
         <v>10</v>
       </c>
       <c r="C113" s="2">
-        <v>44269.33472222222</v>
+        <v>44283.33888888889</v>
       </c>
       <c r="D113" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E113" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F113" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G113" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H113">
         <v>600</v>
@@ -3648,19 +3681,19 @@
         <v>10</v>
       </c>
       <c r="C114" s="2">
-        <v>44283.33888888889</v>
+        <v>44291.29444444444</v>
       </c>
       <c r="D114" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E114" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F114" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G114" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H114">
         <v>600</v>
@@ -3674,19 +3707,19 @@
         <v>10</v>
       </c>
       <c r="C115" s="2">
-        <v>44291.29444444444</v>
+        <v>44297.36805555555</v>
       </c>
       <c r="D115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E115" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F115" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G115" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H115">
         <v>600</v>
@@ -3700,19 +3733,19 @@
         <v>10</v>
       </c>
       <c r="C116" s="2">
-        <v>44297.36805555555</v>
+        <v>44305.37777777778</v>
       </c>
       <c r="D116" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E116" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F116" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G116" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H116">
         <v>600</v>
@@ -3726,19 +3759,19 @@
         <v>10</v>
       </c>
       <c r="C117" s="2">
-        <v>44305.37777777778</v>
+        <v>44311.37361111111</v>
       </c>
       <c r="D117" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E117" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F117" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G117" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H117">
         <v>600</v>
@@ -3752,19 +3785,19 @@
         <v>10</v>
       </c>
       <c r="C118" s="2">
-        <v>44311.37361111111</v>
+        <v>44502.33888888889</v>
       </c>
       <c r="D118" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="E118" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F118" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G118" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H118">
         <v>600</v>
@@ -3778,19 +3811,19 @@
         <v>10</v>
       </c>
       <c r="C119" s="2">
-        <v>44502.33888888889</v>
+        <v>44509.30833333333</v>
       </c>
       <c r="D119" t="s">
         <v>74</v>
       </c>
       <c r="E119" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F119" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G119" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H119">
         <v>600</v>
@@ -3804,19 +3837,19 @@
         <v>10</v>
       </c>
       <c r="C120" s="2">
-        <v>44509.30833333333</v>
+        <v>44515.29166666666</v>
       </c>
       <c r="D120" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E120" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F120" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G120" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H120">
         <v>600</v>
@@ -3830,19 +3863,19 @@
         <v>10</v>
       </c>
       <c r="C121" s="2">
-        <v>44515.29166666666</v>
+        <v>44523.30972222222</v>
       </c>
       <c r="D121" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E121" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F121" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G121" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H121">
         <v>600</v>
@@ -3856,19 +3889,19 @@
         <v>10</v>
       </c>
       <c r="C122" s="2">
-        <v>44523.30972222222</v>
+        <v>44530.31666666667</v>
       </c>
       <c r="D122" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E122" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F122" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G122" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H122">
         <v>600</v>
@@ -3882,19 +3915,19 @@
         <v>10</v>
       </c>
       <c r="C123" s="2">
-        <v>44530.31666666667</v>
+        <v>44537.31666666667</v>
       </c>
       <c r="D123" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E123" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F123" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G123" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H123">
         <v>600</v>
@@ -3908,19 +3941,19 @@
         <v>10</v>
       </c>
       <c r="C124" s="2">
-        <v>44537.31666666667</v>
+        <v>44544.32777777778</v>
       </c>
       <c r="D124" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E124" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F124" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G124" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H124">
         <v>600</v>
@@ -3934,19 +3967,19 @@
         <v>10</v>
       </c>
       <c r="C125" s="2">
-        <v>44544.32777777778</v>
+        <v>44551.30625</v>
       </c>
       <c r="D125" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E125" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F125" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G125" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H125">
         <v>600</v>
@@ -3960,19 +3993,19 @@
         <v>10</v>
       </c>
       <c r="C126" s="2">
-        <v>44551.30625</v>
+        <v>44558.35</v>
       </c>
       <c r="D126" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="E126" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F126" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G126" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H126">
         <v>600</v>
@@ -3986,19 +4019,19 @@
         <v>10</v>
       </c>
       <c r="C127" s="2">
-        <v>44558.35</v>
+        <v>44565.34236111111</v>
       </c>
       <c r="D127" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E127" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F127" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G127" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H127">
         <v>600</v>
@@ -4012,19 +4045,19 @@
         <v>10</v>
       </c>
       <c r="C128" s="2">
-        <v>44565.34236111111</v>
+        <v>44572.31111111111</v>
       </c>
       <c r="D128" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="E128" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F128" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G128" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H128">
         <v>600</v>
@@ -4038,19 +4071,19 @@
         <v>10</v>
       </c>
       <c r="C129" s="2">
-        <v>44572.31111111111</v>
+        <v>44579.32083333333</v>
       </c>
       <c r="D129" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E129" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F129" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G129" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H129">
         <v>600</v>
@@ -4064,19 +4097,19 @@
         <v>10</v>
       </c>
       <c r="C130" s="2">
-        <v>44579.32083333333</v>
+        <v>44586.28472222222</v>
       </c>
       <c r="D130" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E130" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F130" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G130" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H130">
         <v>600</v>
@@ -4090,19 +4123,19 @@
         <v>10</v>
       </c>
       <c r="C131" s="2">
-        <v>44586.28472222222</v>
+        <v>44593.32569444444</v>
       </c>
       <c r="D131" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E131" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F131" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G131" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H131">
         <v>600</v>
@@ -4116,19 +4149,19 @@
         <v>10</v>
       </c>
       <c r="C132" s="2">
-        <v>44593.32569444444</v>
+        <v>44600.33472222222</v>
       </c>
       <c r="D132" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="E132" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F132" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G132" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H132">
         <v>600</v>
@@ -4142,19 +4175,19 @@
         <v>10</v>
       </c>
       <c r="C133" s="2">
-        <v>44600.33472222222</v>
+        <v>44607.32361111111</v>
       </c>
       <c r="D133" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E133" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F133" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G133" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H133">
         <v>600</v>
@@ -4168,19 +4201,19 @@
         <v>10</v>
       </c>
       <c r="C134" s="2">
-        <v>44607.32361111111</v>
+        <v>44614.32638888889</v>
       </c>
       <c r="D134" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E134" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F134" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G134" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H134">
         <v>600</v>
@@ -4194,19 +4227,19 @@
         <v>10</v>
       </c>
       <c r="C135" s="2">
-        <v>44614.32638888889</v>
+        <v>44621.34444444445</v>
       </c>
       <c r="D135" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E135" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F135" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G135" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H135">
         <v>600</v>
@@ -4220,19 +4253,19 @@
         <v>10</v>
       </c>
       <c r="C136" s="2">
-        <v>44621.34444444445</v>
+        <v>44628.3125</v>
       </c>
       <c r="D136" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E136" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F136" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G136" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H136">
         <v>600</v>
@@ -4246,19 +4279,19 @@
         <v>10</v>
       </c>
       <c r="C137" s="2">
-        <v>44628.3125</v>
+        <v>44635.31527777778</v>
       </c>
       <c r="D137" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E137" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F137" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G137" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H137">
         <v>600</v>
@@ -4272,19 +4305,19 @@
         <v>10</v>
       </c>
       <c r="C138" s="2">
-        <v>44635.31527777778</v>
+        <v>44642.34583333333</v>
       </c>
       <c r="D138" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="E138" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F138" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G138" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H138">
         <v>600</v>
@@ -4298,19 +4331,19 @@
         <v>10</v>
       </c>
       <c r="C139" s="2">
-        <v>44642.34583333333</v>
+        <v>44649.33472222222</v>
       </c>
       <c r="D139" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E139" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F139" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G139" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H139">
         <v>600</v>
@@ -4324,19 +4357,19 @@
         <v>10</v>
       </c>
       <c r="C140" s="2">
-        <v>44649.33472222222</v>
+        <v>44656.37152777778</v>
       </c>
       <c r="D140" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="E140" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F140" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G140" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H140">
         <v>600</v>
@@ -4350,19 +4383,19 @@
         <v>10</v>
       </c>
       <c r="C141" s="2">
-        <v>44656.37152777778</v>
+        <v>44663.36527777778</v>
       </c>
       <c r="D141" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="E141" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F141" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G141" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H141">
         <v>600</v>
@@ -4376,19 +4409,19 @@
         <v>10</v>
       </c>
       <c r="C142" s="2">
-        <v>44663.36527777778</v>
+        <v>44671.35972222222</v>
       </c>
       <c r="D142" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E142" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F142" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G142" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H142">
         <v>600</v>
@@ -4402,19 +4435,19 @@
         <v>10</v>
       </c>
       <c r="C143" s="2">
-        <v>44671.35972222222</v>
+        <v>44678.375</v>
       </c>
       <c r="D143" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E143" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F143" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G143" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H143">
         <v>600</v>
@@ -4428,19 +4461,19 @@
         <v>10</v>
       </c>
       <c r="C144" s="2">
-        <v>44678.375</v>
+        <v>44866.32222222222</v>
       </c>
       <c r="D144" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E144" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F144" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G144" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H144">
         <v>600</v>
@@ -4454,19 +4487,19 @@
         <v>10</v>
       </c>
       <c r="C145" s="2">
-        <v>44866.32222222222</v>
+        <v>44872.33680555555</v>
       </c>
       <c r="D145" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E145" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F145" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G145" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H145">
         <v>600</v>
@@ -4480,19 +4513,19 @@
         <v>10</v>
       </c>
       <c r="C146" s="2">
-        <v>44872.33680555555</v>
+        <v>44879.34375</v>
       </c>
       <c r="D146" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="E146" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F146" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G146" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H146">
         <v>600</v>
@@ -4506,19 +4539,19 @@
         <v>10</v>
       </c>
       <c r="C147" s="2">
-        <v>44879.34375</v>
+        <v>44886.36527777778</v>
       </c>
       <c r="D147" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="E147" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F147" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G147" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H147">
         <v>600</v>
@@ -4532,19 +4565,19 @@
         <v>10</v>
       </c>
       <c r="C148" s="2">
-        <v>44886.36527777778</v>
+        <v>44893.36458333334</v>
       </c>
       <c r="D148" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="E148" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F148" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G148" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H148">
         <v>600</v>
@@ -4558,19 +4591,19 @@
         <v>10</v>
       </c>
       <c r="C149" s="2">
-        <v>44893.36458333334</v>
+        <v>44900.34097222222</v>
       </c>
       <c r="D149" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="E149" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F149" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G149" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H149">
         <v>600</v>
@@ -4584,19 +4617,19 @@
         <v>10</v>
       </c>
       <c r="C150" s="2">
-        <v>44900.34097222222</v>
+        <v>44907.32847222222</v>
       </c>
       <c r="D150" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E150" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F150" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G150" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H150">
         <v>600</v>
@@ -4610,19 +4643,19 @@
         <v>10</v>
       </c>
       <c r="C151" s="2">
-        <v>44907.32847222222</v>
+        <v>44914.33333333334</v>
       </c>
       <c r="D151" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E151" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F151" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G151" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H151">
         <v>600</v>
@@ -4636,19 +4669,19 @@
         <v>10</v>
       </c>
       <c r="C152" s="2">
-        <v>44914.33333333334</v>
+        <v>44921.31319444445</v>
       </c>
       <c r="D152" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E152" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F152" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G152" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H152">
         <v>600</v>
@@ -4662,19 +4695,19 @@
         <v>10</v>
       </c>
       <c r="C153" s="2">
-        <v>44921.31319444445</v>
+        <v>44928.30972222222</v>
       </c>
       <c r="D153" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="E153" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F153" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G153" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H153">
         <v>600</v>
@@ -4688,19 +4721,19 @@
         <v>10</v>
       </c>
       <c r="C154" s="2">
-        <v>44928.30972222222</v>
+        <v>44935.29791666667</v>
       </c>
       <c r="D154" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="E154" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F154" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G154" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H154">
         <v>600</v>
@@ -4714,19 +4747,19 @@
         <v>10</v>
       </c>
       <c r="C155" s="2">
-        <v>44935.29791666667</v>
+        <v>44942.32430555556</v>
       </c>
       <c r="D155" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E155" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F155" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G155" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H155">
         <v>600</v>
@@ -4740,19 +4773,19 @@
         <v>10</v>
       </c>
       <c r="C156" s="2">
-        <v>44942.32430555556</v>
+        <v>44950.32638888889</v>
       </c>
       <c r="D156" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E156" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F156" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G156" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H156">
         <v>600</v>
@@ -4766,19 +4799,19 @@
         <v>10</v>
       </c>
       <c r="C157" s="2">
-        <v>44950.32638888889</v>
+        <v>44956.32152777778</v>
       </c>
       <c r="D157" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="E157" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F157" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G157" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H157">
         <v>600</v>
@@ -4792,19 +4825,19 @@
         <v>10</v>
       </c>
       <c r="C158" s="2">
-        <v>44956.32152777778</v>
+        <v>44964.32013888889</v>
       </c>
       <c r="D158" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="E158" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F158" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G158" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H158">
         <v>600</v>
@@ -4818,19 +4851,19 @@
         <v>10</v>
       </c>
       <c r="C159" s="2">
-        <v>44964.32013888889</v>
+        <v>44970.33333333334</v>
       </c>
       <c r="D159" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="E159" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F159" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G159" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H159">
         <v>600</v>
@@ -4844,19 +4877,19 @@
         <v>10</v>
       </c>
       <c r="C160" s="2">
-        <v>44970.33333333334</v>
+        <v>44977.3375</v>
       </c>
       <c r="D160" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="E160" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F160" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G160" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H160">
         <v>600</v>
@@ -4870,19 +4903,19 @@
         <v>10</v>
       </c>
       <c r="C161" s="2">
-        <v>44977.3375</v>
+        <v>44984.33194444444</v>
       </c>
       <c r="D161" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="E161" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F161" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G161" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H161">
         <v>600</v>
@@ -4896,19 +4929,19 @@
         <v>10</v>
       </c>
       <c r="C162" s="2">
-        <v>44984.33194444444</v>
+        <v>44991.33958333333</v>
       </c>
       <c r="D162" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="E162" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F162" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G162" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H162">
         <v>600</v>
@@ -4922,19 +4955,19 @@
         <v>10</v>
       </c>
       <c r="C163" s="2">
-        <v>44991.33958333333</v>
+        <v>44998.33055555556</v>
       </c>
       <c r="D163" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="E163" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F163" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G163" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H163">
         <v>600</v>
@@ -4948,19 +4981,19 @@
         <v>10</v>
       </c>
       <c r="C164" s="2">
-        <v>44998.33055555556</v>
+        <v>45005.32986111111</v>
       </c>
       <c r="D164" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="E164" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F164" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G164" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H164">
         <v>600</v>
@@ -4974,19 +5007,19 @@
         <v>10</v>
       </c>
       <c r="C165" s="2">
-        <v>45005.32986111111</v>
+        <v>45012.33333333334</v>
       </c>
       <c r="D165" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E165" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F165" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G165" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H165">
         <v>600</v>
@@ -5000,19 +5033,19 @@
         <v>10</v>
       </c>
       <c r="C166" s="2">
-        <v>45012.33333333334</v>
+        <v>45019.37083333333</v>
       </c>
       <c r="D166" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E166" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F166" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G166" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H166">
         <v>600</v>
@@ -5026,19 +5059,19 @@
         <v>10</v>
       </c>
       <c r="C167" s="2">
-        <v>45019.37083333333</v>
+        <v>45027.36736111111</v>
       </c>
       <c r="D167" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E167" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F167" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G167" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H167">
         <v>600</v>
@@ -5052,19 +5085,19 @@
         <v>10</v>
       </c>
       <c r="C168" s="2">
-        <v>45027.36736111111</v>
+        <v>45033.37152777778</v>
       </c>
       <c r="D168" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="E168" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F168" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G168" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H168">
         <v>600</v>
@@ -5078,19 +5111,19 @@
         <v>10</v>
       </c>
       <c r="C169" s="2">
-        <v>45033.37152777778</v>
+        <v>45040.36944444444</v>
       </c>
       <c r="D169" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E169" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F169" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G169" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H169">
         <v>600</v>
@@ -5104,19 +5137,19 @@
         <v>10</v>
       </c>
       <c r="C170" s="2">
-        <v>45040.36944444444</v>
+        <v>45236.33472222222</v>
       </c>
       <c r="D170" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="E170" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F170" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G170" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H170">
         <v>600</v>
@@ -5130,19 +5163,19 @@
         <v>10</v>
       </c>
       <c r="C171" s="2">
-        <v>45236.33472222222</v>
+        <v>45243.34097222222</v>
       </c>
       <c r="D171" t="s">
         <v>57</v>
       </c>
       <c r="E171" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F171" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G171" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H171">
         <v>600</v>
@@ -5156,19 +5189,19 @@
         <v>10</v>
       </c>
       <c r="C172" s="2">
-        <v>45243.34097222222</v>
+        <v>45250.33819444444</v>
       </c>
       <c r="D172" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="E172" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F172" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G172" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H172">
         <v>600</v>
@@ -5182,19 +5215,19 @@
         <v>10</v>
       </c>
       <c r="C173" s="2">
-        <v>45250.33819444444</v>
+        <v>45257.33888888889</v>
       </c>
       <c r="D173" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="E173" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F173" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G173" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H173">
         <v>600</v>
@@ -5208,19 +5241,19 @@
         <v>10</v>
       </c>
       <c r="C174" s="2">
-        <v>45257.33888888889</v>
+        <v>45264.34444444445</v>
       </c>
       <c r="D174" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="E174" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F174" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G174" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H174">
         <v>600</v>
@@ -5234,19 +5267,19 @@
         <v>10</v>
       </c>
       <c r="C175" s="2">
-        <v>45264.34444444445</v>
+        <v>45271.32361111111</v>
       </c>
       <c r="D175" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E175" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F175" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G175" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H175">
         <v>600</v>
@@ -5260,19 +5293,19 @@
         <v>10</v>
       </c>
       <c r="C176" s="2">
-        <v>45271.32361111111</v>
+        <v>45278.33611111111</v>
       </c>
       <c r="D176" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="E176" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F176" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G176" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H176">
         <v>600</v>
@@ -5286,19 +5319,19 @@
         <v>10</v>
       </c>
       <c r="C177" s="2">
-        <v>45278.33611111111</v>
+        <v>45287.29930555556</v>
       </c>
       <c r="D177" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E177" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F177" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G177" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H177">
         <v>600</v>
@@ -5312,19 +5345,19 @@
         <v>10</v>
       </c>
       <c r="C178" s="2">
-        <v>45287.29930555556</v>
+        <v>45294.55625</v>
       </c>
       <c r="D178" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E178" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F178" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G178" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H178">
         <v>600</v>
@@ -5338,19 +5371,19 @@
         <v>10</v>
       </c>
       <c r="C179" s="2">
-        <v>45294.55625</v>
+        <v>45299.32777777778</v>
       </c>
       <c r="D179" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="E179" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F179" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G179" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H179">
         <v>600</v>
@@ -5364,19 +5397,19 @@
         <v>10</v>
       </c>
       <c r="C180" s="2">
-        <v>45299.32777777778</v>
+        <v>45306.32361111111</v>
       </c>
       <c r="D180" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="E180" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F180" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G180" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H180">
         <v>600</v>
@@ -5390,19 +5423,19 @@
         <v>10</v>
       </c>
       <c r="C181" s="2">
-        <v>45306.32361111111</v>
+        <v>45314.31736111111</v>
       </c>
       <c r="D181" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="E181" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F181" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G181" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H181">
         <v>600</v>
@@ -5416,19 +5449,19 @@
         <v>10</v>
       </c>
       <c r="C182" s="2">
-        <v>45314.31736111111</v>
+        <v>45320.34236111111</v>
       </c>
       <c r="D182" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E182" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F182" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G182" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H182">
         <v>600</v>
@@ -5442,19 +5475,19 @@
         <v>10</v>
       </c>
       <c r="C183" s="2">
-        <v>45320.34236111111</v>
+        <v>45327.32430555556</v>
       </c>
       <c r="D183" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="E183" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F183" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G183" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H183">
         <v>600</v>
@@ -5468,19 +5501,19 @@
         <v>10</v>
       </c>
       <c r="C184" s="2">
-        <v>45327.32430555556</v>
+        <v>45334.32222222222</v>
       </c>
       <c r="D184" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E184" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F184" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G184" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H184">
         <v>600</v>
@@ -5494,19 +5527,19 @@
         <v>10</v>
       </c>
       <c r="C185" s="2">
-        <v>45334.32222222222</v>
+        <v>45341.35208333333</v>
       </c>
       <c r="D185" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E185" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F185" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G185" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H185">
         <v>600</v>
@@ -5520,19 +5553,19 @@
         <v>10</v>
       </c>
       <c r="C186" s="2">
-        <v>45341.35208333333</v>
+        <v>45348.33402777778</v>
       </c>
       <c r="D186" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="E186" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F186" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G186" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H186">
         <v>600</v>
@@ -5546,19 +5579,19 @@
         <v>10</v>
       </c>
       <c r="C187" s="2">
-        <v>45348.33402777778</v>
+        <v>45355.34027777778</v>
       </c>
       <c r="D187" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E187" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F187" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G187" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H187">
         <v>600</v>
@@ -5572,19 +5605,19 @@
         <v>10</v>
       </c>
       <c r="C188" s="2">
-        <v>45355.34027777778</v>
+        <v>45362.32986111111</v>
       </c>
       <c r="D188" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E188" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F188" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G188" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H188">
         <v>600</v>
@@ -5598,19 +5631,19 @@
         <v>10</v>
       </c>
       <c r="C189" s="2">
-        <v>45362.32986111111</v>
+        <v>45369.31944444445</v>
       </c>
       <c r="D189" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="E189" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F189" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G189" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H189">
         <v>600</v>
@@ -5624,19 +5657,19 @@
         <v>10</v>
       </c>
       <c r="C190" s="2">
-        <v>45369.31944444445</v>
+        <v>45376.32291666666</v>
       </c>
       <c r="D190" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E190" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F190" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G190" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H190">
         <v>600</v>
@@ -5650,19 +5683,19 @@
         <v>10</v>
       </c>
       <c r="C191" s="2">
-        <v>45376.32291666666</v>
+        <v>45384.32291666666</v>
       </c>
       <c r="D191" t="s">
         <v>48</v>
       </c>
       <c r="E191" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F191" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G191" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H191">
         <v>600</v>
@@ -5676,19 +5709,19 @@
         <v>10</v>
       </c>
       <c r="C192" s="2">
-        <v>45384.32291666666</v>
+        <v>45390.35416666666</v>
       </c>
       <c r="D192" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E192" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F192" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G192" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H192">
         <v>600</v>
@@ -5702,19 +5735,19 @@
         <v>10</v>
       </c>
       <c r="C193" s="2">
-        <v>45390.35416666666</v>
+        <v>45397.36388888889</v>
       </c>
       <c r="D193" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E193" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F193" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G193" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H193">
         <v>600</v>
@@ -5728,19 +5761,19 @@
         <v>10</v>
       </c>
       <c r="C194" s="2">
-        <v>45397.36388888889</v>
+        <v>45404.37152777778</v>
       </c>
       <c r="D194" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E194" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F194" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G194" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H194">
         <v>600</v>
@@ -5754,21 +5787,619 @@
         <v>10</v>
       </c>
       <c r="C195" s="2">
-        <v>45404.37152777778</v>
+        <v>45600.3375</v>
       </c>
       <c r="D195" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="E195" t="s">
+        <v>111</v>
+      </c>
+      <c r="F195" t="s">
+        <v>115</v>
+      </c>
+      <c r="G195" t="s">
+        <v>116</v>
+      </c>
+      <c r="H195">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" t="s">
+        <v>9</v>
+      </c>
+      <c r="B196" t="s">
+        <v>10</v>
+      </c>
+      <c r="C196" s="2">
+        <v>45607.34027777778</v>
+      </c>
+      <c r="D196" t="s">
         <v>101</v>
       </c>
-      <c r="F195" t="s">
+      <c r="E196" t="s">
+        <v>111</v>
+      </c>
+      <c r="F196" t="s">
+        <v>115</v>
+      </c>
+      <c r="G196" t="s">
+        <v>116</v>
+      </c>
+      <c r="H196">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" s="2">
+        <v>45614.33819444444</v>
+      </c>
+      <c r="D197" t="s">
+        <v>33</v>
+      </c>
+      <c r="E197" t="s">
+        <v>111</v>
+      </c>
+      <c r="F197" t="s">
+        <v>115</v>
+      </c>
+      <c r="G197" t="s">
+        <v>116</v>
+      </c>
+      <c r="H197">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" s="2">
+        <v>45621.31944444445</v>
+      </c>
+      <c r="D198" t="s">
+        <v>37</v>
+      </c>
+      <c r="E198" t="s">
+        <v>111</v>
+      </c>
+      <c r="F198" t="s">
+        <v>115</v>
+      </c>
+      <c r="G198" t="s">
+        <v>116</v>
+      </c>
+      <c r="H198">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" t="s">
+        <v>9</v>
+      </c>
+      <c r="B199" t="s">
+        <v>10</v>
+      </c>
+      <c r="C199" s="2">
+        <v>45635.35416666666</v>
+      </c>
+      <c r="D199" t="s">
+        <v>102</v>
+      </c>
+      <c r="E199" t="s">
+        <v>111</v>
+      </c>
+      <c r="F199" t="s">
+        <v>115</v>
+      </c>
+      <c r="G199" t="s">
+        <v>116</v>
+      </c>
+      <c r="H199">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" t="s">
+        <v>9</v>
+      </c>
+      <c r="B200" t="s">
+        <v>10</v>
+      </c>
+      <c r="C200" s="2">
+        <v>45642.32569444444</v>
+      </c>
+      <c r="D200" t="s">
+        <v>37</v>
+      </c>
+      <c r="E200" t="s">
+        <v>111</v>
+      </c>
+      <c r="F200" t="s">
+        <v>115</v>
+      </c>
+      <c r="G200" t="s">
+        <v>116</v>
+      </c>
+      <c r="H200">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201" t="s">
+        <v>10</v>
+      </c>
+      <c r="C201" s="2">
+        <v>45649.31319444445</v>
+      </c>
+      <c r="D201" t="s">
+        <v>25</v>
+      </c>
+      <c r="E201" t="s">
+        <v>111</v>
+      </c>
+      <c r="F201" t="s">
+        <v>115</v>
+      </c>
+      <c r="G201" t="s">
+        <v>116</v>
+      </c>
+      <c r="H201">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" t="s">
+        <v>9</v>
+      </c>
+      <c r="B202" t="s">
+        <v>10</v>
+      </c>
+      <c r="C202" s="2">
+        <v>45656.29722222222</v>
+      </c>
+      <c r="D202" t="s">
+        <v>24</v>
+      </c>
+      <c r="E202" t="s">
+        <v>111</v>
+      </c>
+      <c r="F202" t="s">
+        <v>115</v>
+      </c>
+      <c r="G202" t="s">
+        <v>116</v>
+      </c>
+      <c r="H202">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" t="s">
+        <v>9</v>
+      </c>
+      <c r="B203" t="s">
+        <v>10</v>
+      </c>
+      <c r="C203" s="2">
+        <v>45663.30833333333</v>
+      </c>
+      <c r="D203" t="s">
+        <v>90</v>
+      </c>
+      <c r="E203" t="s">
+        <v>111</v>
+      </c>
+      <c r="F203" t="s">
+        <v>115</v>
+      </c>
+      <c r="G203" t="s">
+        <v>116</v>
+      </c>
+      <c r="H203">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204" s="2">
+        <v>45670.33541666667</v>
+      </c>
+      <c r="D204" t="s">
+        <v>100</v>
+      </c>
+      <c r="E204" t="s">
+        <v>111</v>
+      </c>
+      <c r="F204" t="s">
+        <v>115</v>
+      </c>
+      <c r="G204" t="s">
+        <v>116</v>
+      </c>
+      <c r="H204">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" t="s">
+        <v>9</v>
+      </c>
+      <c r="B205" t="s">
+        <v>10</v>
+      </c>
+      <c r="C205" s="2">
+        <v>45678.33958333333</v>
+      </c>
+      <c r="D205" t="s">
+        <v>103</v>
+      </c>
+      <c r="E205" t="s">
+        <v>111</v>
+      </c>
+      <c r="F205" t="s">
+        <v>115</v>
+      </c>
+      <c r="G205" t="s">
+        <v>116</v>
+      </c>
+      <c r="H205">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206" t="s">
+        <v>10</v>
+      </c>
+      <c r="C206" s="2">
+        <v>45684.33125</v>
+      </c>
+      <c r="D206" t="s">
         <v>104</v>
       </c>
-      <c r="G195" t="s">
+      <c r="E206" t="s">
+        <v>111</v>
+      </c>
+      <c r="F206" t="s">
+        <v>115</v>
+      </c>
+      <c r="G206" t="s">
+        <v>116</v>
+      </c>
+      <c r="H206">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" t="s">
+        <v>9</v>
+      </c>
+      <c r="B207" t="s">
+        <v>10</v>
+      </c>
+      <c r="C207" s="2">
+        <v>45691.3125</v>
+      </c>
+      <c r="D207" t="s">
+        <v>48</v>
+      </c>
+      <c r="E207" t="s">
+        <v>111</v>
+      </c>
+      <c r="F207" t="s">
+        <v>115</v>
+      </c>
+      <c r="G207" t="s">
+        <v>116</v>
+      </c>
+      <c r="H207">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208" t="s">
+        <v>10</v>
+      </c>
+      <c r="C208" s="2">
+        <v>45698.33333333334</v>
+      </c>
+      <c r="D208" t="s">
+        <v>42</v>
+      </c>
+      <c r="E208" t="s">
+        <v>111</v>
+      </c>
+      <c r="F208" t="s">
+        <v>115</v>
+      </c>
+      <c r="G208" t="s">
+        <v>116</v>
+      </c>
+      <c r="H208">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209" t="s">
+        <v>10</v>
+      </c>
+      <c r="C209" s="2">
+        <v>45705.32986111111</v>
+      </c>
+      <c r="D209" t="s">
+        <v>74</v>
+      </c>
+      <c r="E209" t="s">
+        <v>111</v>
+      </c>
+      <c r="F209" t="s">
+        <v>115</v>
+      </c>
+      <c r="G209" t="s">
+        <v>116</v>
+      </c>
+      <c r="H209">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210" t="s">
+        <v>10</v>
+      </c>
+      <c r="C210" s="2">
+        <v>45712.32222222222</v>
+      </c>
+      <c r="D210" t="s">
+        <v>86</v>
+      </c>
+      <c r="E210" t="s">
+        <v>111</v>
+      </c>
+      <c r="F210" t="s">
+        <v>115</v>
+      </c>
+      <c r="G210" t="s">
+        <v>116</v>
+      </c>
+      <c r="H210">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211" s="2">
+        <v>45719.32291666666</v>
+      </c>
+      <c r="D211" t="s">
         <v>105</v>
       </c>
-      <c r="H195">
+      <c r="E211" t="s">
+        <v>111</v>
+      </c>
+      <c r="F211" t="s">
+        <v>115</v>
+      </c>
+      <c r="G211" t="s">
+        <v>116</v>
+      </c>
+      <c r="H211">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" t="s">
+        <v>9</v>
+      </c>
+      <c r="B212" t="s">
+        <v>10</v>
+      </c>
+      <c r="C212" s="2">
+        <v>45726.33541666667</v>
+      </c>
+      <c r="D212" t="s">
+        <v>106</v>
+      </c>
+      <c r="E212" t="s">
+        <v>111</v>
+      </c>
+      <c r="F212" t="s">
+        <v>115</v>
+      </c>
+      <c r="G212" t="s">
+        <v>116</v>
+      </c>
+      <c r="H212">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" s="2">
+        <v>45733.33472222222</v>
+      </c>
+      <c r="D213" t="s">
+        <v>107</v>
+      </c>
+      <c r="E213" t="s">
+        <v>111</v>
+      </c>
+      <c r="F213" t="s">
+        <v>115</v>
+      </c>
+      <c r="G213" t="s">
+        <v>116</v>
+      </c>
+      <c r="H213">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" t="s">
+        <v>9</v>
+      </c>
+      <c r="B214" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" s="2">
+        <v>45740.33333333334</v>
+      </c>
+      <c r="D214" t="s">
+        <v>47</v>
+      </c>
+      <c r="E214" t="s">
+        <v>111</v>
+      </c>
+      <c r="F214" t="s">
+        <v>115</v>
+      </c>
+      <c r="G214" t="s">
+        <v>116</v>
+      </c>
+      <c r="H214">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" t="s">
+        <v>10</v>
+      </c>
+      <c r="C215" s="2">
+        <v>45747.30555555555</v>
+      </c>
+      <c r="D215" t="s">
+        <v>38</v>
+      </c>
+      <c r="E215" t="s">
+        <v>111</v>
+      </c>
+      <c r="F215" t="s">
+        <v>115</v>
+      </c>
+      <c r="G215" t="s">
+        <v>116</v>
+      </c>
+      <c r="H215">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" t="s">
+        <v>9</v>
+      </c>
+      <c r="B216" t="s">
+        <v>10</v>
+      </c>
+      <c r="C216" s="2">
+        <v>45754.37361111111</v>
+      </c>
+      <c r="D216" t="s">
+        <v>108</v>
+      </c>
+      <c r="E216" t="s">
+        <v>111</v>
+      </c>
+      <c r="F216" t="s">
+        <v>115</v>
+      </c>
+      <c r="G216" t="s">
+        <v>116</v>
+      </c>
+      <c r="H216">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" t="s">
+        <v>9</v>
+      </c>
+      <c r="B217" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217" s="2">
+        <v>45761.3625</v>
+      </c>
+      <c r="D217" t="s">
+        <v>109</v>
+      </c>
+      <c r="E217" t="s">
+        <v>111</v>
+      </c>
+      <c r="F217" t="s">
+        <v>115</v>
+      </c>
+      <c r="G217" t="s">
+        <v>116</v>
+      </c>
+      <c r="H217">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" t="s">
+        <v>9</v>
+      </c>
+      <c r="B218" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218" s="2">
+        <v>45769.36805555555</v>
+      </c>
+      <c r="D218" t="s">
+        <v>110</v>
+      </c>
+      <c r="E218" t="s">
+        <v>111</v>
+      </c>
+      <c r="F218" t="s">
+        <v>115</v>
+      </c>
+      <c r="G218" t="s">
+        <v>116</v>
+      </c>
+      <c r="H218">
         <v>600</v>
       </c>
     </row>
